--- a/B01_02 常用Python包学习/B01_02 10 Python_Excel/002 Docs/anki_1678953594.xlsx
+++ b/B01_02 常用Python包学习/B01_02 10 Python_Excel/002 Docs/anki_1678953594.xlsx
@@ -18,6 +18,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="9号" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10号" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11号" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="我是刚复制的表" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5号备份" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5号备份1" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27,13 +30,35 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <b val="1"/>
+      <sz val="22"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <sz val="11"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -104,6 +129,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -178,6 +207,26 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>chase</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>已完成</t>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>未完成</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1540,13 +1589,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1600,6 +1649,11 @@
           <t>标题</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1615,18 +1669,21 @@
         <v>153</v>
       </c>
       <c r="E2" t="n">
+        <v>155</v>
+      </c>
+      <c r="F2" t="n">
         <v>703</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>316</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>107</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>115</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>545</v>
       </c>
     </row>
@@ -1644,18 +1701,21 @@
         <v>558</v>
       </c>
       <c r="E3" t="n">
+        <v>964</v>
+      </c>
+      <c r="F3" t="n">
         <v>312</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>10</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>334</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>746</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>564</v>
       </c>
     </row>
@@ -1673,18 +1733,21 @@
         <v>171</v>
       </c>
       <c r="E4" t="n">
+        <v>810</v>
+      </c>
+      <c r="F4" t="n">
         <v>288</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>352</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>708</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>66</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>572</v>
       </c>
     </row>
@@ -1702,18 +1765,21 @@
         <v>542</v>
       </c>
       <c r="E5" t="n">
+        <v>391</v>
+      </c>
+      <c r="F5" t="n">
         <v>714</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>680</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>277</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>483</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>798</v>
       </c>
     </row>
@@ -1731,18 +1797,21 @@
         <v>271</v>
       </c>
       <c r="E6" t="n">
+        <v>199</v>
+      </c>
+      <c r="F6" t="n">
         <v>775</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>199</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>391</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>383</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>511</v>
       </c>
     </row>
@@ -1760,18 +1829,21 @@
         <v>561</v>
       </c>
       <c r="E7" t="n">
+        <v>712</v>
+      </c>
+      <c r="F7" t="n">
         <v>768</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>648</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>544</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>397</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>515</v>
       </c>
     </row>
@@ -1789,18 +1861,21 @@
         <v>193</v>
       </c>
       <c r="E8" t="n">
+        <v>580</v>
+      </c>
+      <c r="F8" t="n">
         <v>942</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>156</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>150</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>723</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>754</v>
       </c>
     </row>
@@ -1818,18 +1893,21 @@
         <v>569</v>
       </c>
       <c r="E9" t="n">
+        <v>24</v>
+      </c>
+      <c r="F9" t="n">
         <v>418</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>121</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>533</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>884</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>27</v>
       </c>
     </row>
@@ -1847,23 +1925,1039 @@
         <v>237</v>
       </c>
       <c r="E10" t="n">
+        <v>90</v>
+      </c>
+      <c r="F10" t="n">
         <v>466</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>802</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>956</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>474</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B2" t="n">
+        <v>152</v>
+      </c>
+      <c r="C2" t="n">
+        <v>766</v>
+      </c>
+      <c r="D2" t="n">
+        <v>153</v>
+      </c>
+      <c r="E2" t="n">
+        <v>155</v>
+      </c>
+      <c r="F2" t="n">
+        <v>703</v>
+      </c>
+      <c r="G2" t="n">
+        <v>316</v>
+      </c>
+      <c r="H2" t="n">
+        <v>107</v>
+      </c>
+      <c r="I2" t="n">
+        <v>115</v>
+      </c>
+      <c r="J2" t="n">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>325</v>
+      </c>
+      <c r="B3" t="n">
+        <v>250</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>558</v>
+      </c>
+      <c r="E3" t="n">
+        <v>964</v>
+      </c>
+      <c r="F3" t="n">
+        <v>312</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3" t="n">
+        <v>334</v>
+      </c>
+      <c r="I3" t="n">
+        <v>746</v>
+      </c>
+      <c r="J3" t="n">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>364</v>
+      </c>
+      <c r="B4" t="n">
+        <v>600</v>
+      </c>
+      <c r="C4" t="n">
+        <v>978</v>
+      </c>
+      <c r="D4" t="n">
+        <v>171</v>
+      </c>
+      <c r="E4" t="n">
+        <v>810</v>
+      </c>
+      <c r="F4" t="n">
+        <v>288</v>
+      </c>
+      <c r="G4" t="n">
+        <v>352</v>
+      </c>
+      <c r="H4" t="n">
+        <v>708</v>
+      </c>
+      <c r="I4" t="n">
+        <v>66</v>
+      </c>
+      <c r="J4" t="n">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59</v>
+      </c>
+      <c r="B5" t="n">
+        <v>601</v>
+      </c>
+      <c r="C5" t="n">
+        <v>512</v>
+      </c>
+      <c r="D5" t="n">
+        <v>542</v>
+      </c>
+      <c r="E5" t="n">
+        <v>391</v>
+      </c>
+      <c r="F5" t="n">
+        <v>714</v>
+      </c>
+      <c r="G5" t="n">
+        <v>680</v>
+      </c>
+      <c r="H5" t="n">
+        <v>277</v>
+      </c>
+      <c r="I5" t="n">
+        <v>483</v>
+      </c>
+      <c r="J5" t="n">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>750</v>
+      </c>
+      <c r="B6" t="n">
+        <v>742</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>271</v>
+      </c>
+      <c r="E6" t="n">
+        <v>199</v>
+      </c>
+      <c r="F6" t="n">
+        <v>775</v>
+      </c>
+      <c r="G6" t="n">
+        <v>199</v>
+      </c>
+      <c r="H6" t="n">
+        <v>391</v>
+      </c>
+      <c r="I6" t="n">
+        <v>383</v>
+      </c>
+      <c r="J6" t="n">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>299</v>
+      </c>
+      <c r="B7" t="n">
+        <v>468</v>
+      </c>
+      <c r="C7" t="n">
+        <v>956</v>
+      </c>
+      <c r="D7" t="n">
+        <v>561</v>
+      </c>
+      <c r="E7" t="n">
+        <v>712</v>
+      </c>
+      <c r="F7" t="n">
+        <v>768</v>
+      </c>
+      <c r="G7" t="n">
+        <v>648</v>
+      </c>
+      <c r="H7" t="n">
+        <v>544</v>
+      </c>
+      <c r="I7" t="n">
+        <v>397</v>
+      </c>
+      <c r="J7" t="n">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>643</v>
+      </c>
+      <c r="B8" t="n">
+        <v>49</v>
+      </c>
+      <c r="C8" t="n">
+        <v>165</v>
+      </c>
+      <c r="D8" t="n">
+        <v>193</v>
+      </c>
+      <c r="E8" t="n">
+        <v>580</v>
+      </c>
+      <c r="F8" t="n">
+        <v>942</v>
+      </c>
+      <c r="G8" t="n">
+        <v>156</v>
+      </c>
+      <c r="H8" t="n">
+        <v>150</v>
+      </c>
+      <c r="I8" t="n">
+        <v>723</v>
+      </c>
+      <c r="J8" t="n">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>258</v>
+      </c>
+      <c r="B9" t="n">
+        <v>572</v>
+      </c>
+      <c r="C9" t="n">
+        <v>267</v>
+      </c>
+      <c r="D9" t="n">
+        <v>569</v>
+      </c>
+      <c r="E9" t="n">
+        <v>24</v>
+      </c>
+      <c r="F9" t="n">
+        <v>418</v>
+      </c>
+      <c r="G9" t="n">
+        <v>121</v>
+      </c>
+      <c r="H9" t="n">
+        <v>533</v>
+      </c>
+      <c r="I9" t="n">
+        <v>884</v>
+      </c>
+      <c r="J9" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>788</v>
+      </c>
+      <c r="B10" t="n">
+        <v>73</v>
+      </c>
+      <c r="C10" t="n">
+        <v>819</v>
+      </c>
+      <c r="D10" t="n">
+        <v>237</v>
+      </c>
+      <c r="E10" t="n">
+        <v>90</v>
+      </c>
+      <c r="F10" t="n">
+        <v>466</v>
+      </c>
+      <c r="G10" t="n">
+        <v>802</v>
+      </c>
+      <c r="H10" t="n">
+        <v>956</v>
+      </c>
+      <c r="I10" t="n">
+        <v>474</v>
+      </c>
+      <c r="J10" t="n">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B2" t="n">
+        <v>152</v>
+      </c>
+      <c r="C2" t="n">
+        <v>766</v>
+      </c>
+      <c r="D2" t="n">
+        <v>153</v>
+      </c>
+      <c r="E2" t="n">
+        <v>155</v>
+      </c>
+      <c r="F2" t="n">
+        <v>703</v>
+      </c>
+      <c r="G2" t="n">
+        <v>316</v>
+      </c>
+      <c r="H2" t="n">
+        <v>107</v>
+      </c>
+      <c r="I2" t="n">
+        <v>115</v>
+      </c>
+      <c r="J2" t="n">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>325</v>
+      </c>
+      <c r="B3" t="n">
+        <v>250</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>558</v>
+      </c>
+      <c r="E3" t="n">
+        <v>964</v>
+      </c>
+      <c r="F3" t="n">
+        <v>312</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3" t="n">
+        <v>334</v>
+      </c>
+      <c r="I3" t="n">
+        <v>746</v>
+      </c>
+      <c r="J3" t="n">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>364</v>
+      </c>
+      <c r="B4" t="n">
+        <v>600</v>
+      </c>
+      <c r="C4" t="n">
+        <v>978</v>
+      </c>
+      <c r="D4" t="n">
+        <v>171</v>
+      </c>
+      <c r="E4" t="n">
+        <v>810</v>
+      </c>
+      <c r="F4" t="n">
+        <v>288</v>
+      </c>
+      <c r="G4" t="n">
+        <v>352</v>
+      </c>
+      <c r="H4" t="n">
+        <v>708</v>
+      </c>
+      <c r="I4" t="n">
+        <v>66</v>
+      </c>
+      <c r="J4" t="n">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59</v>
+      </c>
+      <c r="B5" t="n">
+        <v>601</v>
+      </c>
+      <c r="C5" t="n">
+        <v>512</v>
+      </c>
+      <c r="D5" t="n">
+        <v>542</v>
+      </c>
+      <c r="E5" t="n">
+        <v>391</v>
+      </c>
+      <c r="F5" t="n">
+        <v>714</v>
+      </c>
+      <c r="G5" t="n">
+        <v>680</v>
+      </c>
+      <c r="H5" t="n">
+        <v>277</v>
+      </c>
+      <c r="I5" t="n">
+        <v>483</v>
+      </c>
+      <c r="J5" t="n">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>750</v>
+      </c>
+      <c r="B6" t="n">
+        <v>742</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>271</v>
+      </c>
+      <c r="E6" t="n">
+        <v>199</v>
+      </c>
+      <c r="F6" t="n">
+        <v>775</v>
+      </c>
+      <c r="G6" t="n">
+        <v>199</v>
+      </c>
+      <c r="H6" t="n">
+        <v>391</v>
+      </c>
+      <c r="I6" t="n">
+        <v>383</v>
+      </c>
+      <c r="J6" t="n">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>299</v>
+      </c>
+      <c r="B7" t="n">
+        <v>468</v>
+      </c>
+      <c r="C7" t="n">
+        <v>956</v>
+      </c>
+      <c r="D7" t="n">
+        <v>561</v>
+      </c>
+      <c r="E7" t="n">
+        <v>712</v>
+      </c>
+      <c r="F7" t="n">
+        <v>768</v>
+      </c>
+      <c r="G7" t="n">
+        <v>648</v>
+      </c>
+      <c r="H7" t="n">
+        <v>544</v>
+      </c>
+      <c r="I7" t="n">
+        <v>397</v>
+      </c>
+      <c r="J7" t="n">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>643</v>
+      </c>
+      <c r="B8" t="n">
+        <v>49</v>
+      </c>
+      <c r="C8" t="n">
+        <v>165</v>
+      </c>
+      <c r="D8" t="n">
+        <v>193</v>
+      </c>
+      <c r="E8" t="n">
+        <v>580</v>
+      </c>
+      <c r="F8" t="n">
+        <v>942</v>
+      </c>
+      <c r="G8" t="n">
+        <v>156</v>
+      </c>
+      <c r="H8" t="n">
+        <v>150</v>
+      </c>
+      <c r="I8" t="n">
+        <v>723</v>
+      </c>
+      <c r="J8" t="n">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>258</v>
+      </c>
+      <c r="B9" t="n">
+        <v>572</v>
+      </c>
+      <c r="C9" t="n">
+        <v>267</v>
+      </c>
+      <c r="D9" t="n">
+        <v>569</v>
+      </c>
+      <c r="E9" t="n">
+        <v>24</v>
+      </c>
+      <c r="F9" t="n">
+        <v>418</v>
+      </c>
+      <c r="G9" t="n">
+        <v>121</v>
+      </c>
+      <c r="H9" t="n">
+        <v>533</v>
+      </c>
+      <c r="I9" t="n">
+        <v>884</v>
+      </c>
+      <c r="J9" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>788</v>
+      </c>
+      <c r="B10" t="n">
+        <v>73</v>
+      </c>
+      <c r="C10" t="n">
+        <v>819</v>
+      </c>
+      <c r="D10" t="n">
+        <v>237</v>
+      </c>
+      <c r="E10" t="n">
+        <v>90</v>
+      </c>
+      <c r="F10" t="n">
+        <v>466</v>
+      </c>
+      <c r="G10" t="n">
+        <v>802</v>
+      </c>
+      <c r="H10" t="n">
+        <v>956</v>
+      </c>
+      <c r="I10" t="n">
+        <v>474</v>
+      </c>
+      <c r="J10" t="n">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="H1" s="7" t="n"/>
+      <c r="I1" s="7" t="n"/>
+      <c r="J1" s="7" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="n">
+        <v>199</v>
+      </c>
+      <c r="B2" s="8" t="n">
+        <v>152</v>
+      </c>
+      <c r="C2" s="8" t="n">
+        <v>766</v>
+      </c>
+      <c r="D2" s="8" t="n">
+        <v>153</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>107</v>
+      </c>
+      <c r="F2" s="8" t="n">
+        <v>115</v>
+      </c>
+      <c r="G2" s="8" t="n">
+        <v>545</v>
+      </c>
+      <c r="H2" s="8" t="n"/>
+      <c r="I2" s="8" t="n"/>
+      <c r="J2" s="8" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="10" t="n">
+        <v>325</v>
+      </c>
+      <c r="B3" s="10" t="n">
+        <v>250</v>
+      </c>
+      <c r="C3" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" s="10" t="n">
+        <v>558</v>
+      </c>
+      <c r="E3" s="10" t="n">
+        <v>334</v>
+      </c>
+      <c r="F3" s="10" t="n">
+        <v>746</v>
+      </c>
+      <c r="G3" s="10" t="n">
+        <v>564</v>
+      </c>
+      <c r="H3" s="10" t="n"/>
+      <c r="I3" s="10" t="n"/>
+      <c r="J3" s="10" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="n">
+        <v>364</v>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>600</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>978</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <v>171</v>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>708</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>66</v>
+      </c>
+      <c r="G4" s="8" t="n">
+        <v>572</v>
+      </c>
+      <c r="H4" s="8" t="n"/>
+      <c r="I4" s="8" t="n"/>
+      <c r="J4" s="8" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="n">
+        <v>59</v>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>601</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>542</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>277</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>483</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>798</v>
+      </c>
+      <c r="H5" s="8" t="n"/>
+      <c r="I5" s="8" t="n"/>
+      <c r="J5" s="8" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="n">
+        <v>750</v>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>742</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>271</v>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v>391</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>383</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>511</v>
+      </c>
+      <c r="H6" s="8" t="n"/>
+      <c r="I6" s="8" t="n"/>
+      <c r="J6" s="8" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="n">
+        <v>299</v>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>468</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>956</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <v>561</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>544</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>397</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>515</v>
+      </c>
+      <c r="H7" s="8" t="n"/>
+      <c r="I7" s="8" t="n"/>
+      <c r="J7" s="8" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="n">
+        <v>643</v>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v>49</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>165</v>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v>193</v>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>150</v>
+      </c>
+      <c r="F8" s="8" t="n">
+        <v>723</v>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v>754</v>
+      </c>
+      <c r="H8" s="8" t="n"/>
+      <c r="I8" s="8" t="n"/>
+      <c r="J8" s="8" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="n">
+        <v>258</v>
+      </c>
+      <c r="B9" s="8" t="n">
+        <v>572</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>267</v>
+      </c>
+      <c r="D9" s="8" t="n">
+        <v>569</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>533</v>
+      </c>
+      <c r="F9" s="8" t="n">
+        <v>884</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="H9" s="8" t="n"/>
+      <c r="I9" s="8" t="n"/>
+      <c r="J9" s="8" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="n">
+        <v>788</v>
+      </c>
+      <c r="B10" s="8" t="n">
+        <v>73</v>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>819</v>
+      </c>
+      <c r="D10" s="8" t="n">
+        <v>237</v>
+      </c>
+      <c r="E10" s="8" t="n">
+        <v>956</v>
+      </c>
+      <c r="F10" s="8" t="n">
+        <v>474</v>
+      </c>
+      <c r="G10" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="H10" s="8" t="n"/>
+      <c r="I10" s="8" t="n"/>
+      <c r="J10" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 

--- a/B01_02 常用Python包学习/B01_02 10 Python_Excel/002 Docs/anki_1678953594.xlsx
+++ b/B01_02 常用Python包学习/B01_02 10 Python_Excel/002 Docs/anki_1678953594.xlsx
@@ -2672,7 +2672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2772,6 +2772,10 @@
       <c r="H3" s="10" t="n"/>
       <c r="I3" s="10" t="n"/>
       <c r="J3" s="10" t="n"/>
+      <c r="K3">
+        <f>sum(A3:J3)</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="n">

--- a/B01_02 常用Python包学习/B01_02 10 Python_Excel/002 Docs/anki_1678953594.xlsx
+++ b/B01_02 常用Python包学习/B01_02 10 Python_Excel/002 Docs/anki_1678953594.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1号" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2号" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2月" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4号" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5号" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1月" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7号" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8号" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="9号" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10号" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11号" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="我是刚复制的表" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5号备份" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5号备份1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="1号" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2号" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2月" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="4号" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="5号" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="1月" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="7号" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="8号" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="9号" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="10号" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="11号" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="我是刚复制的表" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="5号备份" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="5号备份1" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -107,37 +107,37 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -215,12 +215,12 @@
     <author>chase</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A1" shapeId="0">
       <text>
         <t>已完成</t>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A2" shapeId="0">
       <text>
         <t>未完成</t>
       </text>
@@ -867,7 +867,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1226,7 +1226,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1585,7 +1585,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1944,7 +1944,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2303,7 +2303,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2662,12 +2662,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -2675,8 +2675,8 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <selection activeCell="A1" pane="topRight" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -2960,8 +2960,8 @@
       <c r="J10" s="8" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -3320,7 +3320,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -3679,7 +3679,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -4038,7 +4038,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -4397,7 +4397,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -4756,7 +4756,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5115,7 +5115,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5474,6 +5474,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>